--- a/datastatic/datasets/online/Health_Alcohol_consumption_OECD_2012.xlsx
+++ b/datastatic/datasets/online/Health_Alcohol_consumption_OECD_2012.xlsx
@@ -11,10 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
-  <si>
-    <t>sponsor</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="97">
   <si>
     <t>original_title</t>
   </si>
@@ -25,7 +22,7 @@
     <t>original_indicator_code</t>
   </si>
   <si>
-    <t>title</t>
+    <t>title_German</t>
   </si>
   <si>
     <t>Alkoholkonsum</t>
@@ -40,7 +37,7 @@
     <t>short_indicator_description$de</t>
   </si>
   <si>
-    <t>Jährlicher Konsum von purer Alkohol in Litern pro Person ab 15 Jahre und älter</t>
+    <t>Jährlicher Konsum von purem Alkohol in Litern pro Person ab 15 Jahre und älter</t>
   </si>
   <si>
     <t>short_indicator_description$en</t>
@@ -52,10 +49,22 @@
     <t>long_indicator_description</t>
   </si>
   <si>
+    <t>long_indicator_description$en$text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alcohol use is associated with numerous harmful health and social consequences, including an increased risk of a range of cancers, stroke and liver cirrhosis. In addition to direct effects, alcohol contributes to deaths and disabilities through accidents, assault, homicide and suicide. Indicator is based on the data of the Global Information System on Alcohol and Health (GISAH) and published surveys. A potential limitation to this indicator is that it only tells us how much a population drinks on average, there is no information on drinking behaviour, such as binge drinking or alcoholism. </t>
+  </si>
+  <si>
+    <t>long_indicator_description$en$baseunit</t>
+  </si>
+  <si>
+    <t>liter/year/person</t>
+  </si>
+  <si>
     <t>long_indicator_description$de$text</t>
   </si>
   <si>
-    <t>Jährlicher Alkoholkonsum is definiert anhand der jährlichen Verkaufszahlen puren Alkohols in Litern ab 15 Jahre und älter. Alkoholkonsum wird unter anderem asoziiert mit einer Anzahl an negativen Konsequenzen für Gesundheit und soziales Umfeld; unter anderem erhöhtes Risiko für Krebs,Schlaganfälle oder Leberzirrhose. Indicator is based on the data of the Global Information System on Alcohol and Health (GISAH) and published surveys.Health consequences of alcoholconsumption were GISAH, a 20112 Global Survey on Alcohol and Health, the Global Burden of Disease estimates for 2010 and further related literature.</t>
+    <t xml:space="preserve">Alkoholkonsum wird mit einer Anzahl an negativen Konsequenzen für Gesundheit und soziales Umfeld asoziiert. Zu negativen Folgen von Alkoholkonsum zählen unter anderem erhöhtes Risiko für Krebs,Schlaganfälle oder Leberzirrhose. Zusätzlich trägt Alkohol zu vielen Todes- und Krankheitsfällen bei, da es ein wichtiger Faktor bei Unfällen, Misshanldung, Mord und Suizid sein kann. Der Indikator basiert auf Daten des Global Information System on Alcohol and Health (GISAH, Globales Informationssystem für Alkohol und Gesundheit) und weiteren Umfragen. Ein möglicher Nachteil dieses Indikators ist, dass er uns nur Informationen darüber enthält, wieviel eine Bevölerung durchschnittlich trinkt. Er informiert nicht über Trinkverhalten, wie beispielsweise Komatrinken oder Alkoholismus. </t>
   </si>
   <si>
     <t>long_indicator_description$de$baseunit</t>
@@ -64,25 +73,37 @@
     <t>Liter/Jahr/Person</t>
   </si>
   <si>
-    <t>long_indicator_description$en$text</t>
-  </si>
-  <si>
-    <t>Alcohol consumption is defined as annual sales of pure alcohol in litres per person aged 15 years and older. Alcohol use is associated with numerous harmful health and social consequences, including an increased risk of a range of cancers, stroke and liver cirrhosis. Indicator is based on the data of the Global Information System on Alcohol and Health (GISAH) and published surveys.Health consequences of alcoholconsumption were GISAH, a 20112 Global Survey on Alcohol and Health, the Global Burden of Disease estimates for 2010 and further related literature.</t>
-  </si>
-  <si>
-    <t>long_indicator_description$en$baseunit</t>
-  </si>
-  <si>
     <t>target</t>
   </si>
   <si>
+    <t>target$type</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>target$value</t>
+  </si>
+  <si>
     <t>target$rating</t>
   </si>
   <si>
     <t>2.5,5,7.5,10</t>
   </si>
   <si>
-    <t>target$baseunit</t>
+    <t>target$explanation$de</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der Optimalwert orientiert sich an den Ländern, die am besten abschneiden. </t>
+  </si>
+  <si>
+    <t>target$explanation$en</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The optimum value is based on the best performing countries. </t>
+  </si>
+  <si>
+    <t>target$target_reference</t>
   </si>
   <si>
     <t>target$tags</t>
@@ -91,90 +112,75 @@
     <t>social</t>
   </si>
   <si>
+    <t>target$target</t>
+  </si>
+  <si>
     <t>target$ministerial_responsibility</t>
   </si>
   <si>
     <t>BMG</t>
   </si>
   <si>
-    <t>target$explanation$de</t>
-  </si>
-  <si>
-    <t>target$explanation$en</t>
-  </si>
-  <si>
-    <t>target$value</t>
-  </si>
-  <si>
-    <t>2,50</t>
-  </si>
-  <si>
-    <t>target$type</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>target$target_reference</t>
-  </si>
-  <si>
-    <t>target$target</t>
+    <t>target$other_relevant_SDGs</t>
   </si>
   <si>
     <t>scoring</t>
   </si>
   <si>
-    <t>scoring$maintainer</t>
-  </si>
-  <si>
-    <t>tbd</t>
-  </si>
-  <si>
     <t>scoring$timestamp</t>
   </si>
   <si>
+    <t>scoring$type</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
     <t>scoring$timestamp_data_host</t>
   </si>
   <si>
-    <t>scoring$type</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
     <t>source</t>
   </si>
   <si>
+    <t>source$type</t>
+  </si>
+  <si>
+    <t>official</t>
+  </si>
+  <si>
     <t>source$note</t>
   </si>
   <si>
+    <t>source$publisher</t>
+  </si>
+  <si>
+    <t>OECD</t>
+  </si>
+  <si>
+    <t>source$link</t>
+  </si>
+  <si>
+    <t>https://data.oecd.org/healthrisk/alcohol-consumption.htm</t>
+  </si>
+  <si>
+    <t>source$value</t>
+  </si>
+  <si>
+    <t>SDSN</t>
+  </si>
+  <si>
+    <t>source$maintainer</t>
+  </si>
+  <si>
+    <t>OKF</t>
+  </si>
+  <si>
+    <t>source$license</t>
+  </si>
+  <si>
     <t>Disclaimer and Terms and Conditions: ht://www.oecd.org/termsandconditions/</t>
   </si>
   <si>
-    <t>source$publisher</t>
-  </si>
-  <si>
-    <t>OECD</t>
-  </si>
-  <si>
-    <t>source$link</t>
-  </si>
-  <si>
-    <t>https://data.oecd.org/healthrisk/alcohol-consumption.htm</t>
-  </si>
-  <si>
-    <t>source$value</t>
-  </si>
-  <si>
-    <t>SDSN</t>
-  </si>
-  <si>
-    <t>source$type</t>
-  </si>
-  <si>
-    <t>official</t>
-  </si>
-  <si>
     <t>countries</t>
   </si>
   <si>
@@ -193,7 +199,7 @@
     <t>Canada</t>
   </si>
   <si>
-    <t>China (People's Republic of)</t>
+    <t>China</t>
   </si>
   <si>
     <t>Czech Republic</t>
@@ -302,49 +308,104 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
     <font/>
+    <font>
+      <b/>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
     <font>
       <u/>
       <color rgb="FF0000FF"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC9DAF8"/>
+        <bgColor rgb="FFC9DAF8"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFEEEEEE"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -364,599 +425,605 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="39.57"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="B4" s="2">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1">
-        <v>3.0</v>
-      </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="6" t="s">
         <v>12</v>
       </c>
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="A10" s="6" t="s">
         <v>14</v>
       </c>
+      <c r="B10" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="A11" s="6" t="s">
         <v>16</v>
       </c>
+      <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="A12" s="6" t="s">
         <v>18</v>
       </c>
+      <c r="B12" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
-        <v>19</v>
+      <c r="A13" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
-        <v>20</v>
+      <c r="A14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>22</v>
+      <c r="A15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2.5</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
-        <v>23</v>
+      <c r="A16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>25</v>
+      <c r="A17" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>27</v>
+      <c r="A18" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
-        <v>28</v>
+      <c r="A19" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
-        <v>29</v>
+      <c r="A20" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="s">
-        <v>34</v>
+      <c r="A23" s="6" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="s">
-        <v>35</v>
+      <c r="A24" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="s">
-        <v>36</v>
+      <c r="A25" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="8">
+        <v>42694.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>38</v>
+      <c r="A26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B27" s="2">
-        <v>42276.0</v>
+        <v>2013.0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28" s="1">
+      <c r="A28" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2">
         <v>2013.0</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="B37" s="1">
-        <v>2013.0</v>
-      </c>
-      <c r="C37" s="1">
-        <v>2011.0</v>
-      </c>
-      <c r="D37" s="1">
-        <v>2012.0</v>
-      </c>
-      <c r="E37" s="1">
-        <v>2014.0</v>
-      </c>
-      <c r="F37" s="1">
-        <v>2015.0</v>
-      </c>
-      <c r="G37" s="1">
-        <v>2016.0</v>
-      </c>
-      <c r="H37" s="1">
-        <v>2017.0</v>
-      </c>
-    </row>
     <row r="38">
-      <c r="A38" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B38" s="1">
+      <c r="A38" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" s="2">
         <v>9.9</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B39" s="1">
+      <c r="A39" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" s="2">
         <v>12.2</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B40" s="1">
+      <c r="A40" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40" s="2">
         <v>9.8</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B41" s="1">
+      <c r="A41" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" s="2">
         <v>7.3</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B42" s="1">
+      <c r="A42" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42" s="2">
         <v>8.1</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B43" s="1">
+      <c r="A43" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" s="2">
         <v>5.8</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B44" s="1">
+      <c r="A44" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="2">
         <v>11.6</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B45" s="1">
+      <c r="A45" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45" s="2">
         <v>9.3</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B46" s="1">
+      <c r="A46" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B46" s="2">
         <v>12.2</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B47" s="1">
+      <c r="A47" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B47" s="2">
         <v>9.3</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B48" s="1">
+      <c r="A48" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B48" s="2">
         <v>11.7</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B49" s="1">
+      <c r="A49" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" s="2">
         <v>11.2</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B50" s="1">
+      <c r="A50" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B50" s="2">
         <v>7.4</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B51" s="1">
+      <c r="A51" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51" s="2">
         <v>11.1</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B52" s="1">
+      <c r="A52" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B52" s="2">
         <v>6.3</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B53" s="1">
+      <c r="A53" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B53" s="2">
         <v>2.6</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B54" s="1">
+      <c r="A54" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B54" s="2">
         <v>11.5</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B55" s="1">
+      <c r="A55" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B55" s="2">
         <v>2.6</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B56" s="1">
+      <c r="A56" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B56" s="2">
         <v>6.1</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B57" s="1">
+      <c r="A57" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B57" s="2">
         <v>7.2</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B58" s="1">
+      <c r="A58" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B58" s="2">
         <v>10.2</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B59" s="1">
+      <c r="A59" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B59" s="2">
         <v>14.4</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B60" s="1">
+      <c r="A60" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B60" s="2">
         <v>11.3</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B61" s="1">
+      <c r="A61" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B61" s="2">
         <v>5.7</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B62" s="1">
-        <v>-1.0</v>
+      <c r="A62" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B62" s="2">
+        <v>8.7</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B63" s="1">
+      <c r="A63" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B63" s="2">
         <v>9.2</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B64" s="1">
+      <c r="A64" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B64" s="2">
         <v>6.2</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B65" s="1">
+      <c r="A65" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B65" s="2">
         <v>10.2</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B66" s="1">
+      <c r="A66" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B66" s="2">
         <v>10.3</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B67" s="1">
+      <c r="A67" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B67" s="2">
         <v>11.2</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B68" s="1">
+      <c r="A68" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B68" s="2">
         <v>10.1</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B69" s="1">
+      <c r="A69" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B69" s="2">
         <v>11.0</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B70" s="1">
+      <c r="A70" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B70" s="2">
         <v>8.1</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B71" s="1">
+      <c r="A71" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B71" s="2">
         <v>9.1</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B72" s="1">
+      <c r="A72" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B72" s="2">
         <v>9.8</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B73" s="1">
+      <c r="A73" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B73" s="2">
         <v>7.3</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B74" s="1">
+      <c r="A74" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B74" s="2">
         <v>9.9</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B75" s="1">
+      <c r="A75" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B75" s="2">
         <v>1.6</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B76" s="1">
+      <c r="A76" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B76" s="2">
         <v>9.7</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B77" s="1">
+      <c r="A77" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B77" s="2">
         <v>8.8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B33"/>
+    <hyperlink r:id="rId1" ref="B32"/>
   </hyperlinks>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/datastatic/datasets/online/Health_Alcohol_consumption_OECD_2012.xlsx
+++ b/datastatic/datasets/online/Health_Alcohol_consumption_OECD_2012.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Health_Alcohol_consumption_OECD_2012.csv" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="Health_Alcohol_consumption_OECD" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr/>
